--- a/biology/Microbiologie/Dendrosomididae/Dendrosomididae.xlsx
+++ b/biology/Microbiologie/Dendrosomididae/Dendrosomididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dendrosomididae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Dendrosomides, dérivé du grec ancien δένδρον / déndron, « arbre », σῶμα / σῶμα, « corps », et du suffixe grec -ίδης / -idis ou εἴδω / eido, « espèce de ; avoir l'air de », littéralement « dont le corps ressemble à un arbre ».
 </t>
@@ -542,14 +556,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Collin, en 1909, décrit ainsi Dendrosomides : 
 « Le corps trifurqué, atteignant 200 à 300 μm de long ;  repose par sa base ovoïde sur un gros pédicule chitineux, en cône allongé de 80 à 100 μm sur 15 à 20 μm de large ; à stries longitudinales (couche sous-pelliculaire). Chaque branche, large d'environ 30 μm, émet sur toute sa longueur des digitations obtuses que termine un faisceau de 8 à 13 tentacules peu ou pas capités (20 à 25 μm X 1,5 à 2 μm de large). Une pellicule assez épaisse... enveloppe tout le corps.
 Le cytoplasme est finement granuleux, avec plusieurs vacuoles contractiles, sphériques, de 8 à 10 μm. Le noyau, irrégulièrement rubané, ramifié selon la forme générale du corps, (parfois bifide dans une même branche), est presque homogène, à grains de chromatine fins et serrés.
 Souvent des inclusions sphériques, (nucléoles ?) entourées d'une zone claire.
-Certains individus portent latéralement 1 ou 2 bourgeons non tentaculés, à pellicule finement plissée transversalement et à noyau indépendant. Ils sont sans doute homologues aux « lagéniformes » des Ophryodendron (de la même famille que le Dendrosomides) et se libèrent comme eux, car on les retrouve fixés à part, sur un court pédicule chitineux[1]. »
+Certains individus portent latéralement 1 ou 2 bourgeons non tentaculés, à pellicule finement plissée transversalement et à noyau indépendant. Ils sont sans doute homologues aux « lagéniformes » des Ophryodendron (de la même famille que le Dendrosomides) et se libèrent comme eux, car on les retrouve fixés à part, sur un court pédicule chitineux. »
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dendrosomides a été découvert en 1909 en milieu marin, à Sète, « assez abondant sur les poils des pattes thoraciques de Eupagurus cuanensis Thomson et de Eupagurus excavatus Herbst. »[1] deux crustacés pagures (« bernard-l'ermite »).
-Par ailleurs, selon GBIF       (11 mai 2023)[2], les espèces de la famille des Dendrosomididae ont rarement été décrites.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dendrosomides a été découvert en 1909 en milieu marin, à Sète, « assez abondant sur les poils des pattes thoraciques de Eupagurus cuanensis Thomson et de Eupagurus excavatus Herbst. » deux crustacés pagures (« bernard-l'ermite »).
+Par ailleurs, selon GBIF       (11 mai 2023), les espèces de la famille des Dendrosomididae ont rarement été décrites.
 </t>
         </is>
       </c>
@@ -610,10 +628,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 mai 2023)[2] :
-Dendrosomides Collin, 1906  genre type[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 mai 2023) :
+Dendrosomides Collin, 1906  genre type
 Espèce type : Dendrosomides paguri Collin, 1906
 Ophryodendron Claparède &amp; Lachmann, 1859</t>
         </is>
@@ -643,9 +663,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Dendrosomididae Jankowksi, 1978[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Dendrosomididae Jankowksi, 1978.
 </t>
         </is>
       </c>
